--- a/Code/Results/Cases/Case_2_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011349167083647</v>
+        <v>1.032993782094195</v>
       </c>
       <c r="D2">
-        <v>1.030568552899704</v>
+        <v>1.042341109638337</v>
       </c>
       <c r="E2">
-        <v>1.026205042620367</v>
+        <v>1.050632533155241</v>
       </c>
       <c r="F2">
-        <v>1.034644392256482</v>
+        <v>1.055486803584468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050973357979499</v>
+        <v>1.0395884734699</v>
       </c>
       <c r="J2">
-        <v>1.033195645453549</v>
+        <v>1.038120948107042</v>
       </c>
       <c r="K2">
-        <v>1.041617832929704</v>
+        <v>1.045118071181544</v>
       </c>
       <c r="L2">
-        <v>1.03731098325366</v>
+        <v>1.053386270475264</v>
       </c>
       <c r="M2">
-        <v>1.045641286680876</v>
+        <v>1.058227127627049</v>
       </c>
       <c r="N2">
-        <v>1.014992998811312</v>
+        <v>1.016697893379302</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014933961582185</v>
+        <v>1.033748985781565</v>
       </c>
       <c r="D3">
-        <v>1.033304203651837</v>
+        <v>1.042942308748059</v>
       </c>
       <c r="E3">
-        <v>1.029799329073367</v>
+        <v>1.051480690197687</v>
       </c>
       <c r="F3">
-        <v>1.038142246762708</v>
+        <v>1.056295623587447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052073451789525</v>
+        <v>1.039763583382552</v>
       </c>
       <c r="J3">
-        <v>1.035025628316646</v>
+        <v>1.0385196655569</v>
       </c>
       <c r="K3">
-        <v>1.043527972353138</v>
+        <v>1.045530631591462</v>
       </c>
       <c r="L3">
-        <v>1.040064607299899</v>
+        <v>1.054046820891078</v>
       </c>
       <c r="M3">
-        <v>1.048309286280859</v>
+        <v>1.058849410388343</v>
       </c>
       <c r="N3">
-        <v>1.015600259378079</v>
+        <v>1.016829985723613</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017211630409744</v>
+        <v>1.034238149969269</v>
       </c>
       <c r="D4">
-        <v>1.035044790410554</v>
+        <v>1.043331742380676</v>
       </c>
       <c r="E4">
-        <v>1.03209194346994</v>
+        <v>1.052030900535779</v>
       </c>
       <c r="F4">
-        <v>1.040371108794623</v>
+        <v>1.056820052591245</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052762335493869</v>
+        <v>1.039875764098196</v>
       </c>
       <c r="J4">
-        <v>1.036185077935537</v>
+        <v>1.038777463300584</v>
       </c>
       <c r="K4">
-        <v>1.04473788273584</v>
+        <v>1.045797306163493</v>
       </c>
       <c r="L4">
-        <v>1.041817881380143</v>
+        <v>1.054474989457717</v>
       </c>
       <c r="M4">
-        <v>1.050005533616905</v>
+        <v>1.059252481179285</v>
       </c>
       <c r="N4">
-        <v>1.015985013077455</v>
+        <v>1.01691538100809</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018159405988906</v>
+        <v>1.034443911693111</v>
       </c>
       <c r="D5">
-        <v>1.035769628495792</v>
+        <v>1.043495558358169</v>
       </c>
       <c r="E5">
-        <v>1.033048064138594</v>
+        <v>1.052262541109882</v>
       </c>
       <c r="F5">
-        <v>1.041300099058967</v>
+        <v>1.057040776218326</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053046538127328</v>
+        <v>1.039922654180576</v>
       </c>
       <c r="J5">
-        <v>1.036666737167477</v>
+        <v>1.038885792529208</v>
       </c>
       <c r="K5">
-        <v>1.045240421098426</v>
+        <v>1.045909347833794</v>
       </c>
       <c r="L5">
-        <v>1.042548317703567</v>
+        <v>1.054655168936469</v>
       </c>
       <c r="M5">
-        <v>1.050711605188725</v>
+        <v>1.059422029083664</v>
       </c>
       <c r="N5">
-        <v>1.016144847141028</v>
+        <v>1.016951262234843</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018317977558675</v>
+        <v>1.034478466804625</v>
       </c>
       <c r="D6">
-        <v>1.035890932007698</v>
+        <v>1.043523069477728</v>
       </c>
       <c r="E6">
-        <v>1.033208156522019</v>
+        <v>1.052301453998919</v>
       </c>
       <c r="F6">
-        <v>1.041455616706181</v>
+        <v>1.057077851501084</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05309394265681</v>
+        <v>1.039930511333359</v>
       </c>
       <c r="J6">
-        <v>1.036747275085736</v>
+        <v>1.038903978576214</v>
       </c>
       <c r="K6">
-        <v>1.045324445152417</v>
+        <v>1.045928156076707</v>
       </c>
       <c r="L6">
-        <v>1.042670577017885</v>
+        <v>1.054685432217195</v>
       </c>
       <c r="M6">
-        <v>1.050829750572265</v>
+        <v>1.059450502556919</v>
       </c>
       <c r="N6">
-        <v>1.016171572822635</v>
+        <v>1.016957285726427</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017224332602747</v>
+        <v>1.034240898909705</v>
       </c>
       <c r="D7">
-        <v>1.035054502638053</v>
+        <v>1.043333930914795</v>
       </c>
       <c r="E7">
-        <v>1.03210474912686</v>
+        <v>1.052033994425942</v>
       </c>
       <c r="F7">
-        <v>1.040383553232206</v>
+        <v>1.056823000917025</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052766154140147</v>
+        <v>1.039876391710473</v>
       </c>
       <c r="J7">
-        <v>1.036191536402235</v>
+        <v>1.038778910994953</v>
       </c>
       <c r="K7">
-        <v>1.044744621502451</v>
+        <v>1.045798803539963</v>
       </c>
       <c r="L7">
-        <v>1.041827667357674</v>
+        <v>1.054477396329784</v>
       </c>
       <c r="M7">
-        <v>1.050014995569788</v>
+        <v>1.059254746307951</v>
       </c>
       <c r="N7">
-        <v>1.015987156262243</v>
+        <v>1.016915860529823</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012569521410917</v>
+        <v>1.033248902710588</v>
       </c>
       <c r="D8">
-        <v>1.031499306054807</v>
+        <v>1.042544200083843</v>
       </c>
       <c r="E8">
-        <v>1.027426753634084</v>
+        <v>1.050918881504929</v>
       </c>
       <c r="F8">
-        <v>1.035833791272671</v>
+        <v>1.055759925615657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051349947541007</v>
+        <v>1.039647885543254</v>
       </c>
       <c r="J8">
-        <v>1.03381928702928</v>
+        <v>1.038255736995736</v>
       </c>
       <c r="K8">
-        <v>1.042268856104919</v>
+        <v>1.045257554965678</v>
       </c>
       <c r="L8">
-        <v>1.038247598562331</v>
+        <v>1.053609350607476</v>
       </c>
       <c r="M8">
-        <v>1.046549299220991</v>
+        <v>1.0584373445947</v>
       </c>
       <c r="N8">
-        <v>1.015199946475497</v>
+        <v>1.016742550341839</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004032717201211</v>
+        <v>1.031504766637116</v>
       </c>
       <c r="D9">
-        <v>1.025000086974504</v>
+        <v>1.041155875669564</v>
       </c>
       <c r="E9">
-        <v>1.018918710063537</v>
+        <v>1.048964693100878</v>
       </c>
       <c r="F9">
-        <v>1.027541548593782</v>
+        <v>1.053894926396237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048674378203902</v>
+        <v>1.039236634179115</v>
       </c>
       <c r="J9">
-        <v>1.029443869140214</v>
+        <v>1.037332369034803</v>
       </c>
       <c r="K9">
-        <v>1.037700171043907</v>
+        <v>1.04430172554351</v>
       </c>
       <c r="L9">
-        <v>1.031712124308965</v>
+        <v>1.052085550412489</v>
       </c>
       <c r="M9">
-        <v>1.040203046163828</v>
+        <v>1.057000212764267</v>
       </c>
       <c r="N9">
-        <v>1.013748076309447</v>
+        <v>1.016436583375264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9980971748707601</v>
+        <v>1.030344734323767</v>
       </c>
       <c r="D10">
-        <v>1.020497751716254</v>
+        <v>1.040232646123401</v>
       </c>
       <c r="E10">
-        <v>1.013052429055435</v>
+        <v>1.047669274046723</v>
       </c>
       <c r="F10">
-        <v>1.021812598479528</v>
+        <v>1.052657282823098</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046763354585116</v>
+        <v>1.038956739548536</v>
       </c>
       <c r="J10">
-        <v>1.026386492317071</v>
+        <v>1.036715879169955</v>
       </c>
       <c r="K10">
-        <v>1.034506519416686</v>
+        <v>1.043663189804051</v>
       </c>
       <c r="L10">
-        <v>1.027189950194457</v>
+        <v>1.051073691306056</v>
       </c>
       <c r="M10">
-        <v>1.035798880087772</v>
+        <v>1.056044403841938</v>
       </c>
       <c r="N10">
-        <v>1.01273368788314</v>
+        <v>1.016232247250832</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9954644373517858</v>
+        <v>1.029843097314044</v>
       </c>
       <c r="D11">
-        <v>1.018505178559296</v>
+        <v>1.039833451814109</v>
       </c>
       <c r="E11">
-        <v>1.010462363892338</v>
+        <v>1.047110118251018</v>
       </c>
       <c r="F11">
-        <v>1.019280515814798</v>
+        <v>1.05212274546193</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045904171738629</v>
+        <v>1.038834194514956</v>
       </c>
       <c r="J11">
-        <v>1.025027125930639</v>
+        <v>1.036448732208414</v>
       </c>
       <c r="K11">
-        <v>1.033086353206056</v>
+        <v>1.043386402060207</v>
       </c>
       <c r="L11">
-        <v>1.025189636173742</v>
+        <v>1.050636517568924</v>
       </c>
       <c r="M11">
-        <v>1.033847764763576</v>
+        <v>1.055631090645125</v>
       </c>
       <c r="N11">
-        <v>1.012282717564785</v>
+        <v>1.016143688130513</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9944766960873136</v>
+        <v>1.029656868739897</v>
       </c>
       <c r="D12">
-        <v>1.017758329953873</v>
+        <v>1.0396852608849</v>
       </c>
       <c r="E12">
-        <v>1.009492452452092</v>
+        <v>1.046902690825448</v>
       </c>
       <c r="F12">
-        <v>1.018331924727906</v>
+        <v>1.051924402545038</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045580135449685</v>
+        <v>1.038788474046301</v>
       </c>
       <c r="J12">
-        <v>1.024516665595288</v>
+        <v>1.036349472762644</v>
       </c>
       <c r="K12">
-        <v>1.032553037378496</v>
+        <v>1.043283547470206</v>
       </c>
       <c r="L12">
-        <v>1.024440024001141</v>
+        <v>1.050474278975288</v>
       </c>
       <c r="M12">
-        <v>1.033116144309409</v>
+        <v>1.05547765340027</v>
       </c>
       <c r="N12">
-        <v>1.012113380371185</v>
+        <v>1.016110781730031</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9946890215473794</v>
+        <v>1.02969681076658</v>
       </c>
       <c r="D13">
-        <v>1.01791883974037</v>
+        <v>1.039717044346413</v>
       </c>
       <c r="E13">
-        <v>1.009700862532333</v>
+        <v>1.046947172553611</v>
       </c>
       <c r="F13">
-        <v>1.018535771240679</v>
+        <v>1.051966938324195</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045649866214506</v>
+        <v>1.038798290359546</v>
       </c>
       <c r="J13">
-        <v>1.024626414654296</v>
+        <v>1.03637076554989</v>
       </c>
       <c r="K13">
-        <v>1.032667701355028</v>
+        <v>1.043305612065669</v>
       </c>
       <c r="L13">
-        <v>1.024601121790311</v>
+        <v>1.050509073014841</v>
       </c>
       <c r="M13">
-        <v>1.033273395573733</v>
+        <v>1.055510562304255</v>
       </c>
       <c r="N13">
-        <v>1.012149787503244</v>
+        <v>1.016117840782291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9953829932903449</v>
+        <v>1.029827701515463</v>
       </c>
       <c r="D14">
-        <v>1.018443582380513</v>
+        <v>1.03982120050717</v>
       </c>
       <c r="E14">
-        <v>1.010382352822672</v>
+        <v>1.047092966757234</v>
       </c>
       <c r="F14">
-        <v>1.019202271483081</v>
+        <v>1.052106346117705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045877487515319</v>
+        <v>1.038830419358187</v>
       </c>
       <c r="J14">
-        <v>1.024985045132744</v>
+        <v>1.036440527979219</v>
       </c>
       <c r="K14">
-        <v>1.033042388723806</v>
+        <v>1.043377900942848</v>
       </c>
       <c r="L14">
-        <v>1.025127809373108</v>
+        <v>1.050623103863107</v>
       </c>
       <c r="M14">
-        <v>1.03378743091984</v>
+        <v>1.055618405716422</v>
       </c>
       <c r="N14">
-        <v>1.012268757746453</v>
+        <v>1.016140968311202</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9958092573034238</v>
+        <v>1.029908361164825</v>
       </c>
       <c r="D15">
-        <v>1.018765995616278</v>
+        <v>1.039885386222982</v>
       </c>
       <c r="E15">
-        <v>1.010801191200192</v>
+        <v>1.047182830945391</v>
       </c>
       <c r="F15">
-        <v>1.019611845429811</v>
+        <v>1.052192267494825</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046017079364974</v>
+        <v>1.038850188381565</v>
       </c>
       <c r="J15">
-        <v>1.025205270192801</v>
+        <v>1.036483507087885</v>
       </c>
       <c r="K15">
-        <v>1.033272470881774</v>
+        <v>1.043422434810555</v>
       </c>
       <c r="L15">
-        <v>1.025451435268804</v>
+        <v>1.050693381590441</v>
       </c>
       <c r="M15">
-        <v>1.034103223947602</v>
+        <v>1.055684863008789</v>
       </c>
       <c r="N15">
-        <v>1.012341815208006</v>
+        <v>1.016155216421497</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9982705466551703</v>
+        <v>1.030378040484665</v>
       </c>
       <c r="D16">
-        <v>1.020629064290786</v>
+        <v>1.040259151514397</v>
       </c>
       <c r="E16">
-        <v>1.013223242211307</v>
+        <v>1.047706420832307</v>
       </c>
       <c r="F16">
-        <v>1.02197953278264</v>
+        <v>1.05269278736611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046819696513403</v>
+        <v>1.038964844114034</v>
       </c>
       <c r="J16">
-        <v>1.026475944398886</v>
+        <v>1.036733604672248</v>
       </c>
       <c r="K16">
-        <v>1.034599968614372</v>
+        <v>1.043681553145962</v>
       </c>
       <c r="L16">
-        <v>1.027321793064553</v>
+        <v>1.051102725632083</v>
       </c>
       <c r="M16">
-        <v>1.03592741799581</v>
+        <v>1.056071845994694</v>
       </c>
       <c r="N16">
-        <v>1.012763364711393</v>
+        <v>1.01623812297636</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9997973977376565</v>
+        <v>1.03067283719122</v>
       </c>
       <c r="D17">
-        <v>1.021786022533632</v>
+        <v>1.04049375863636</v>
       </c>
       <c r="E17">
-        <v>1.014728926047074</v>
+        <v>1.048035330105477</v>
       </c>
       <c r="F17">
-        <v>1.023450722830496</v>
+        <v>1.053007118698505</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047314577593823</v>
+        <v>1.039036404115319</v>
       </c>
       <c r="J17">
-        <v>1.027263363878724</v>
+        <v>1.036890430904303</v>
       </c>
       <c r="K17">
-        <v>1.035422550469238</v>
+        <v>1.043844012561205</v>
       </c>
       <c r="L17">
-        <v>1.028483540049186</v>
+        <v>1.051359756732107</v>
       </c>
       <c r="M17">
-        <v>1.037059700892295</v>
+        <v>1.056314740954145</v>
       </c>
       <c r="N17">
-        <v>1.01302460616895</v>
+        <v>1.016290106908387</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000681972835421</v>
+        <v>1.030844851123488</v>
       </c>
       <c r="D18">
-        <v>1.022456722490309</v>
+        <v>1.040630655884656</v>
       </c>
       <c r="E18">
-        <v>1.015602372967026</v>
+        <v>1.048227347879415</v>
       </c>
       <c r="F18">
-        <v>1.024303906647654</v>
+        <v>1.053190594932554</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047600184588245</v>
+        <v>1.039078013655116</v>
       </c>
       <c r="J18">
-        <v>1.027719240792514</v>
+        <v>1.036981885339803</v>
       </c>
       <c r="K18">
-        <v>1.035898764276104</v>
+        <v>1.043938743585544</v>
       </c>
       <c r="L18">
-        <v>1.029157116275712</v>
+        <v>1.051509771896536</v>
       </c>
       <c r="M18">
-        <v>1.037715907765139</v>
+        <v>1.056456471229539</v>
       </c>
       <c r="N18">
-        <v>1.013175856283725</v>
+        <v>1.016320420485024</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000982582808184</v>
+        <v>1.030903514227246</v>
       </c>
       <c r="D19">
-        <v>1.02268472007729</v>
+        <v>1.040677343558396</v>
       </c>
       <c r="E19">
-        <v>1.015899393002957</v>
+        <v>1.048292849843183</v>
       </c>
       <c r="F19">
-        <v>1.024593992981972</v>
+        <v>1.053253177925208</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047697056057844</v>
+        <v>1.039092179322962</v>
       </c>
       <c r="J19">
-        <v>1.02787411019822</v>
+        <v>1.037013065566082</v>
       </c>
       <c r="K19">
-        <v>1.036060538815587</v>
+        <v>1.043971039488316</v>
       </c>
       <c r="L19">
-        <v>1.029386109157165</v>
+        <v>1.051560938957433</v>
       </c>
       <c r="M19">
-        <v>1.037938946953125</v>
+        <v>1.056504806654126</v>
       </c>
       <c r="N19">
-        <v>1.013227239286013</v>
+        <v>1.016330755299309</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9996342057991501</v>
+        <v>1.030641201660973</v>
       </c>
       <c r="D20">
-        <v>1.021662321271885</v>
+        <v>1.040468581821579</v>
       </c>
       <c r="E20">
-        <v>1.014567878618768</v>
+        <v>1.048000023596092</v>
       </c>
       <c r="F20">
-        <v>1.023293391056434</v>
+        <v>1.052973380243489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047261797840779</v>
+        <v>1.039028739865256</v>
       </c>
       <c r="J20">
-        <v>1.027179235485204</v>
+        <v>1.03687360695718</v>
       </c>
       <c r="K20">
-        <v>1.035334667369615</v>
+        <v>1.043826585172637</v>
       </c>
       <c r="L20">
-        <v>1.028359316519799</v>
+        <v>1.051332170067181</v>
       </c>
       <c r="M20">
-        <v>1.036938657537599</v>
+        <v>1.056288675050691</v>
       </c>
       <c r="N20">
-        <v>1.01299669451757</v>
+        <v>1.016284530325013</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9951789106200494</v>
+        <v>1.029789154628377</v>
       </c>
       <c r="D21">
-        <v>1.018289246307475</v>
+        <v>1.039790526679717</v>
       </c>
       <c r="E21">
-        <v>1.010181890365245</v>
+        <v>1.047050026584713</v>
       </c>
       <c r="F21">
-        <v>1.019006229161645</v>
+        <v>1.05206528823636</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045810595036599</v>
+        <v>1.038820963732302</v>
       </c>
       <c r="J21">
-        <v>1.024879591721392</v>
+        <v>1.036419985477383</v>
       </c>
       <c r="K21">
-        <v>1.032932214479778</v>
+        <v>1.04335661485422</v>
       </c>
       <c r="L21">
-        <v>1.024972897610329</v>
+        <v>1.050589520542802</v>
       </c>
       <c r="M21">
-        <v>1.033636252713694</v>
+        <v>1.055586646139931</v>
       </c>
       <c r="N21">
-        <v>1.012233774933142</v>
+        <v>1.016134158146957</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9923206185112137</v>
+        <v>1.029254028453254</v>
       </c>
       <c r="D22">
-        <v>1.016129455495943</v>
+        <v>1.039364714354379</v>
       </c>
       <c r="E22">
-        <v>1.007378667245294</v>
+        <v>1.04645427699239</v>
       </c>
       <c r="F22">
-        <v>1.016263890047306</v>
+        <v>1.051495539585246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044869758065822</v>
+        <v>1.038689159579011</v>
       </c>
       <c r="J22">
-        <v>1.023401607255583</v>
+        <v>1.036134607523721</v>
       </c>
       <c r="K22">
-        <v>1.031388016440879</v>
+        <v>1.043060876048474</v>
       </c>
       <c r="L22">
-        <v>1.022805354903749</v>
+        <v>1.050123439829434</v>
       </c>
       <c r="M22">
-        <v>1.031519897662375</v>
+        <v>1.055145749299079</v>
       </c>
       <c r="N22">
-        <v>1.011743493908894</v>
+        <v>1.016039546299802</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9938414090798278</v>
+        <v>1.029537652443149</v>
       </c>
       <c r="D23">
-        <v>1.01727818670296</v>
+        <v>1.039590396736256</v>
       </c>
       <c r="E23">
-        <v>1.008869149117227</v>
+        <v>1.04676994737291</v>
       </c>
       <c r="F23">
-        <v>1.017722212837781</v>
+        <v>1.051797459199398</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045371253512382</v>
+        <v>1.038759141791218</v>
       </c>
       <c r="J23">
-        <v>1.024188226933621</v>
+        <v>1.036285907280292</v>
       </c>
       <c r="K23">
-        <v>1.032209887166641</v>
+        <v>1.043217675995157</v>
       </c>
       <c r="L23">
-        <v>1.023958140591767</v>
+        <v>1.050370436632194</v>
       </c>
       <c r="M23">
-        <v>1.03264570197381</v>
+        <v>1.055379429387222</v>
       </c>
       <c r="N23">
-        <v>1.01200442849397</v>
+        <v>1.016089708019265</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9997079637583876</v>
+        <v>1.030655496197846</v>
       </c>
       <c r="D24">
-        <v>1.02171822930557</v>
+        <v>1.040479957971133</v>
       </c>
       <c r="E24">
-        <v>1.014640663806838</v>
+        <v>1.048015976561214</v>
       </c>
       <c r="F24">
-        <v>1.023364497744019</v>
+        <v>1.052988624791218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047285656151191</v>
+        <v>1.039032203412354</v>
       </c>
       <c r="J24">
-        <v>1.027217260013632</v>
+        <v>1.036881209035596</v>
       </c>
       <c r="K24">
-        <v>1.035374389021738</v>
+        <v>1.043834459948559</v>
       </c>
       <c r="L24">
-        <v>1.028415460285805</v>
+        <v>1.051344635005644</v>
       </c>
       <c r="M24">
-        <v>1.036993364886613</v>
+        <v>1.056300452944608</v>
       </c>
       <c r="N24">
-        <v>1.013009310071491</v>
+        <v>1.016287050167069</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006281260932703</v>
+        <v>1.031955195436752</v>
       </c>
       <c r="D25">
-        <v>1.026709265256448</v>
+        <v>1.041514390162861</v>
       </c>
       <c r="E25">
-        <v>1.02115124505115</v>
+        <v>1.049468607092498</v>
       </c>
       <c r="F25">
-        <v>1.029719468104465</v>
+        <v>1.054376079808249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049388036245579</v>
+        <v>1.039343965703351</v>
       </c>
       <c r="J25">
-        <v>1.030599069025352</v>
+        <v>1.037571247965551</v>
       </c>
       <c r="K25">
-        <v>1.038906635117117</v>
+        <v>1.044549068374885</v>
       </c>
       <c r="L25">
-        <v>1.033429854259902</v>
+        <v>1.052478790460669</v>
       </c>
       <c r="M25">
-        <v>1.041873302880071</v>
+        <v>1.057371351742378</v>
       </c>
       <c r="N25">
-        <v>1.014131383743506</v>
+        <v>1.01651574824248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032993782094195</v>
+        <v>1.011349167083647</v>
       </c>
       <c r="D2">
-        <v>1.042341109638337</v>
+        <v>1.030568552899703</v>
       </c>
       <c r="E2">
-        <v>1.050632533155241</v>
+        <v>1.026205042620367</v>
       </c>
       <c r="F2">
-        <v>1.055486803584468</v>
+        <v>1.034644392256481</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0395884734699</v>
+        <v>1.050973357979499</v>
       </c>
       <c r="J2">
-        <v>1.038120948107042</v>
+        <v>1.033195645453548</v>
       </c>
       <c r="K2">
-        <v>1.045118071181544</v>
+        <v>1.041617832929703</v>
       </c>
       <c r="L2">
-        <v>1.053386270475264</v>
+        <v>1.03731098325366</v>
       </c>
       <c r="M2">
-        <v>1.058227127627049</v>
+        <v>1.045641286680875</v>
       </c>
       <c r="N2">
-        <v>1.016697893379302</v>
+        <v>1.014992998811312</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033748985781565</v>
+        <v>1.014933961582185</v>
       </c>
       <c r="D3">
-        <v>1.042942308748059</v>
+        <v>1.033304203651837</v>
       </c>
       <c r="E3">
-        <v>1.051480690197687</v>
+        <v>1.029799329073367</v>
       </c>
       <c r="F3">
-        <v>1.056295623587447</v>
+        <v>1.038142246762708</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039763583382552</v>
+        <v>1.052073451789525</v>
       </c>
       <c r="J3">
-        <v>1.0385196655569</v>
+        <v>1.035025628316646</v>
       </c>
       <c r="K3">
-        <v>1.045530631591462</v>
+        <v>1.043527972353138</v>
       </c>
       <c r="L3">
-        <v>1.054046820891078</v>
+        <v>1.040064607299899</v>
       </c>
       <c r="M3">
-        <v>1.058849410388343</v>
+        <v>1.048309286280859</v>
       </c>
       <c r="N3">
-        <v>1.016829985723613</v>
+        <v>1.015600259378079</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034238149969269</v>
+        <v>1.017211630409745</v>
       </c>
       <c r="D4">
-        <v>1.043331742380676</v>
+        <v>1.035044790410554</v>
       </c>
       <c r="E4">
-        <v>1.052030900535779</v>
+        <v>1.03209194346994</v>
       </c>
       <c r="F4">
-        <v>1.056820052591245</v>
+        <v>1.040371108794623</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039875764098196</v>
+        <v>1.052762335493869</v>
       </c>
       <c r="J4">
-        <v>1.038777463300584</v>
+        <v>1.036185077935538</v>
       </c>
       <c r="K4">
-        <v>1.045797306163493</v>
+        <v>1.044737882735841</v>
       </c>
       <c r="L4">
-        <v>1.054474989457717</v>
+        <v>1.041817881380143</v>
       </c>
       <c r="M4">
-        <v>1.059252481179285</v>
+        <v>1.050005533616905</v>
       </c>
       <c r="N4">
-        <v>1.01691538100809</v>
+        <v>1.015985013077455</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034443911693111</v>
+        <v>1.018159405988906</v>
       </c>
       <c r="D5">
-        <v>1.043495558358169</v>
+        <v>1.035769628495792</v>
       </c>
       <c r="E5">
-        <v>1.052262541109882</v>
+        <v>1.033048064138595</v>
       </c>
       <c r="F5">
-        <v>1.057040776218326</v>
+        <v>1.041300099058967</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039922654180576</v>
+        <v>1.053046538127328</v>
       </c>
       <c r="J5">
-        <v>1.038885792529208</v>
+        <v>1.036666737167477</v>
       </c>
       <c r="K5">
-        <v>1.045909347833794</v>
+        <v>1.045240421098426</v>
       </c>
       <c r="L5">
-        <v>1.054655168936469</v>
+        <v>1.042548317703567</v>
       </c>
       <c r="M5">
-        <v>1.059422029083664</v>
+        <v>1.050711605188725</v>
       </c>
       <c r="N5">
-        <v>1.016951262234843</v>
+        <v>1.016144847141029</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034478466804625</v>
+        <v>1.018317977558673</v>
       </c>
       <c r="D6">
-        <v>1.043523069477728</v>
+        <v>1.035890932007697</v>
       </c>
       <c r="E6">
-        <v>1.052301453998919</v>
+        <v>1.033208156522018</v>
       </c>
       <c r="F6">
-        <v>1.057077851501084</v>
+        <v>1.04145561670618</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039930511333359</v>
+        <v>1.053093942656809</v>
       </c>
       <c r="J6">
-        <v>1.038903978576214</v>
+        <v>1.036747275085735</v>
       </c>
       <c r="K6">
-        <v>1.045928156076707</v>
+        <v>1.045324445152416</v>
       </c>
       <c r="L6">
-        <v>1.054685432217195</v>
+        <v>1.042670577017884</v>
       </c>
       <c r="M6">
-        <v>1.059450502556919</v>
+        <v>1.050829750572264</v>
       </c>
       <c r="N6">
-        <v>1.016957285726427</v>
+        <v>1.016171572822634</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034240898909705</v>
+        <v>1.017224332602748</v>
       </c>
       <c r="D7">
-        <v>1.043333930914795</v>
+        <v>1.035054502638054</v>
       </c>
       <c r="E7">
-        <v>1.052033994425942</v>
+        <v>1.032104749126861</v>
       </c>
       <c r="F7">
-        <v>1.056823000917025</v>
+        <v>1.040383553232207</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039876391710473</v>
+        <v>1.052766154140148</v>
       </c>
       <c r="J7">
-        <v>1.038778910994953</v>
+        <v>1.036191536402236</v>
       </c>
       <c r="K7">
-        <v>1.045798803539963</v>
+        <v>1.044744621502452</v>
       </c>
       <c r="L7">
-        <v>1.054477396329784</v>
+        <v>1.041827667357675</v>
       </c>
       <c r="M7">
-        <v>1.059254746307951</v>
+        <v>1.050014995569789</v>
       </c>
       <c r="N7">
-        <v>1.016915860529823</v>
+        <v>1.015987156262243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033248902710588</v>
+        <v>1.012569521410917</v>
       </c>
       <c r="D8">
-        <v>1.042544200083843</v>
+        <v>1.031499306054807</v>
       </c>
       <c r="E8">
-        <v>1.050918881504929</v>
+        <v>1.027426753634084</v>
       </c>
       <c r="F8">
-        <v>1.055759925615657</v>
+        <v>1.035833791272672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039647885543254</v>
+        <v>1.051349947541007</v>
       </c>
       <c r="J8">
-        <v>1.038255736995736</v>
+        <v>1.033819287029281</v>
       </c>
       <c r="K8">
-        <v>1.045257554965678</v>
+        <v>1.042268856104919</v>
       </c>
       <c r="L8">
-        <v>1.053609350607476</v>
+        <v>1.038247598562332</v>
       </c>
       <c r="M8">
-        <v>1.0584373445947</v>
+        <v>1.046549299220991</v>
       </c>
       <c r="N8">
-        <v>1.016742550341839</v>
+        <v>1.015199946475497</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031504766637116</v>
+        <v>1.004032717201211</v>
       </c>
       <c r="D9">
-        <v>1.041155875669564</v>
+        <v>1.025000086974504</v>
       </c>
       <c r="E9">
-        <v>1.048964693100878</v>
+        <v>1.018918710063537</v>
       </c>
       <c r="F9">
-        <v>1.053894926396237</v>
+        <v>1.027541548593782</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039236634179115</v>
+        <v>1.048674378203902</v>
       </c>
       <c r="J9">
-        <v>1.037332369034803</v>
+        <v>1.029443869140214</v>
       </c>
       <c r="K9">
-        <v>1.04430172554351</v>
+        <v>1.037700171043907</v>
       </c>
       <c r="L9">
-        <v>1.052085550412489</v>
+        <v>1.031712124308965</v>
       </c>
       <c r="M9">
-        <v>1.057000212764267</v>
+        <v>1.040203046163828</v>
       </c>
       <c r="N9">
-        <v>1.016436583375264</v>
+        <v>1.013748076309447</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030344734323767</v>
+        <v>0.99809717487076</v>
       </c>
       <c r="D10">
-        <v>1.040232646123401</v>
+        <v>1.020497751716255</v>
       </c>
       <c r="E10">
-        <v>1.047669274046723</v>
+        <v>1.013052429055435</v>
       </c>
       <c r="F10">
-        <v>1.052657282823098</v>
+        <v>1.021812598479528</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038956739548536</v>
+        <v>1.046763354585116</v>
       </c>
       <c r="J10">
-        <v>1.036715879169955</v>
+        <v>1.026386492317071</v>
       </c>
       <c r="K10">
-        <v>1.043663189804051</v>
+        <v>1.034506519416686</v>
       </c>
       <c r="L10">
-        <v>1.051073691306056</v>
+        <v>1.027189950194457</v>
       </c>
       <c r="M10">
-        <v>1.056044403841938</v>
+        <v>1.035798880087772</v>
       </c>
       <c r="N10">
-        <v>1.016232247250832</v>
+        <v>1.01273368788314</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029843097314044</v>
+        <v>0.9954644373517861</v>
       </c>
       <c r="D11">
-        <v>1.039833451814109</v>
+        <v>1.018505178559296</v>
       </c>
       <c r="E11">
-        <v>1.047110118251018</v>
+        <v>1.010462363892338</v>
       </c>
       <c r="F11">
-        <v>1.05212274546193</v>
+        <v>1.019280515814798</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038834194514956</v>
+        <v>1.045904171738629</v>
       </c>
       <c r="J11">
-        <v>1.036448732208414</v>
+        <v>1.025027125930639</v>
       </c>
       <c r="K11">
-        <v>1.043386402060207</v>
+        <v>1.033086353206056</v>
       </c>
       <c r="L11">
-        <v>1.050636517568924</v>
+        <v>1.025189636173742</v>
       </c>
       <c r="M11">
-        <v>1.055631090645125</v>
+        <v>1.033847764763576</v>
       </c>
       <c r="N11">
-        <v>1.016143688130513</v>
+        <v>1.012282717564786</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029656868739897</v>
+        <v>0.9944766960873128</v>
       </c>
       <c r="D12">
-        <v>1.0396852608849</v>
+        <v>1.017758329953872</v>
       </c>
       <c r="E12">
-        <v>1.046902690825448</v>
+        <v>1.009492452452091</v>
       </c>
       <c r="F12">
-        <v>1.051924402545038</v>
+        <v>1.018331924727905</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038788474046301</v>
+        <v>1.045580135449685</v>
       </c>
       <c r="J12">
-        <v>1.036349472762644</v>
+        <v>1.024516665595287</v>
       </c>
       <c r="K12">
-        <v>1.043283547470206</v>
+        <v>1.032553037378495</v>
       </c>
       <c r="L12">
-        <v>1.050474278975288</v>
+        <v>1.02444002400114</v>
       </c>
       <c r="M12">
-        <v>1.05547765340027</v>
+        <v>1.033116144309408</v>
       </c>
       <c r="N12">
-        <v>1.016110781730031</v>
+        <v>1.012113380371185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02969681076658</v>
+        <v>0.9946890215473779</v>
       </c>
       <c r="D13">
-        <v>1.039717044346413</v>
+        <v>1.017918839740368</v>
       </c>
       <c r="E13">
-        <v>1.046947172553611</v>
+        <v>1.009700862532331</v>
       </c>
       <c r="F13">
-        <v>1.051966938324195</v>
+        <v>1.018535771240677</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038798290359546</v>
+        <v>1.045649866214505</v>
       </c>
       <c r="J13">
-        <v>1.03637076554989</v>
+        <v>1.024626414654294</v>
       </c>
       <c r="K13">
-        <v>1.043305612065669</v>
+        <v>1.032667701355026</v>
       </c>
       <c r="L13">
-        <v>1.050509073014841</v>
+        <v>1.024601121790309</v>
       </c>
       <c r="M13">
-        <v>1.055510562304255</v>
+        <v>1.033273395573731</v>
       </c>
       <c r="N13">
-        <v>1.016117840782291</v>
+        <v>1.012149787503243</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029827701515463</v>
+        <v>0.9953829932903446</v>
       </c>
       <c r="D14">
-        <v>1.03982120050717</v>
+        <v>1.018443582380513</v>
       </c>
       <c r="E14">
-        <v>1.047092966757234</v>
+        <v>1.010382352822672</v>
       </c>
       <c r="F14">
-        <v>1.052106346117705</v>
+        <v>1.01920227148308</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038830419358187</v>
+        <v>1.045877487515319</v>
       </c>
       <c r="J14">
-        <v>1.036440527979219</v>
+        <v>1.024985045132744</v>
       </c>
       <c r="K14">
-        <v>1.043377900942848</v>
+        <v>1.033042388723806</v>
       </c>
       <c r="L14">
-        <v>1.050623103863107</v>
+        <v>1.025127809373109</v>
       </c>
       <c r="M14">
-        <v>1.055618405716422</v>
+        <v>1.03378743091984</v>
       </c>
       <c r="N14">
-        <v>1.016140968311202</v>
+        <v>1.012268757746453</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029908361164825</v>
+        <v>0.9958092573034241</v>
       </c>
       <c r="D15">
-        <v>1.039885386222982</v>
+        <v>1.018765995616278</v>
       </c>
       <c r="E15">
-        <v>1.047182830945391</v>
+        <v>1.010801191200193</v>
       </c>
       <c r="F15">
-        <v>1.052192267494825</v>
+        <v>1.019611845429812</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038850188381565</v>
+        <v>1.046017079364975</v>
       </c>
       <c r="J15">
-        <v>1.036483507087885</v>
+        <v>1.025205270192801</v>
       </c>
       <c r="K15">
-        <v>1.043422434810555</v>
+        <v>1.033272470881775</v>
       </c>
       <c r="L15">
-        <v>1.050693381590441</v>
+        <v>1.025451435268804</v>
       </c>
       <c r="M15">
-        <v>1.055684863008789</v>
+        <v>1.034103223947603</v>
       </c>
       <c r="N15">
-        <v>1.016155216421497</v>
+        <v>1.012341815208007</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030378040484665</v>
+        <v>0.9982705466551702</v>
       </c>
       <c r="D16">
-        <v>1.040259151514397</v>
+        <v>1.020629064290786</v>
       </c>
       <c r="E16">
-        <v>1.047706420832307</v>
+        <v>1.013223242211307</v>
       </c>
       <c r="F16">
-        <v>1.05269278736611</v>
+        <v>1.02197953278264</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038964844114034</v>
+        <v>1.046819696513403</v>
       </c>
       <c r="J16">
-        <v>1.036733604672248</v>
+        <v>1.026475944398885</v>
       </c>
       <c r="K16">
-        <v>1.043681553145962</v>
+        <v>1.034599968614372</v>
       </c>
       <c r="L16">
-        <v>1.051102725632083</v>
+        <v>1.027321793064553</v>
       </c>
       <c r="M16">
-        <v>1.056071845994694</v>
+        <v>1.035927417995809</v>
       </c>
       <c r="N16">
-        <v>1.01623812297636</v>
+        <v>1.012763364711393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03067283719122</v>
+        <v>0.9997973977376564</v>
       </c>
       <c r="D17">
-        <v>1.04049375863636</v>
+        <v>1.021786022533632</v>
       </c>
       <c r="E17">
-        <v>1.048035330105477</v>
+        <v>1.014728926047074</v>
       </c>
       <c r="F17">
-        <v>1.053007118698505</v>
+        <v>1.023450722830496</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039036404115319</v>
+        <v>1.047314577593823</v>
       </c>
       <c r="J17">
-        <v>1.036890430904303</v>
+        <v>1.027263363878724</v>
       </c>
       <c r="K17">
-        <v>1.043844012561205</v>
+        <v>1.035422550469238</v>
       </c>
       <c r="L17">
-        <v>1.051359756732107</v>
+        <v>1.028483540049186</v>
       </c>
       <c r="M17">
-        <v>1.056314740954145</v>
+        <v>1.037059700892295</v>
       </c>
       <c r="N17">
-        <v>1.016290106908387</v>
+        <v>1.01302460616895</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030844851123488</v>
+        <v>1.00068197283542</v>
       </c>
       <c r="D18">
-        <v>1.040630655884656</v>
+        <v>1.022456722490309</v>
       </c>
       <c r="E18">
-        <v>1.048227347879415</v>
+        <v>1.015602372967026</v>
       </c>
       <c r="F18">
-        <v>1.053190594932554</v>
+        <v>1.024303906647654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039078013655116</v>
+        <v>1.047600184588245</v>
       </c>
       <c r="J18">
-        <v>1.036981885339803</v>
+        <v>1.027719240792514</v>
       </c>
       <c r="K18">
-        <v>1.043938743585544</v>
+        <v>1.035898764276104</v>
       </c>
       <c r="L18">
-        <v>1.051509771896536</v>
+        <v>1.029157116275712</v>
       </c>
       <c r="M18">
-        <v>1.056456471229539</v>
+        <v>1.037715907765139</v>
       </c>
       <c r="N18">
-        <v>1.016320420485024</v>
+        <v>1.013175856283726</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030903514227246</v>
+        <v>1.000982582808183</v>
       </c>
       <c r="D19">
-        <v>1.040677343558396</v>
+        <v>1.02268472007729</v>
       </c>
       <c r="E19">
-        <v>1.048292849843183</v>
+        <v>1.015899393002956</v>
       </c>
       <c r="F19">
-        <v>1.053253177925208</v>
+        <v>1.024593992981973</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039092179322962</v>
+        <v>1.047697056057843</v>
       </c>
       <c r="J19">
-        <v>1.037013065566082</v>
+        <v>1.02787411019822</v>
       </c>
       <c r="K19">
-        <v>1.043971039488316</v>
+        <v>1.036060538815587</v>
       </c>
       <c r="L19">
-        <v>1.051560938957433</v>
+        <v>1.029386109157165</v>
       </c>
       <c r="M19">
-        <v>1.056504806654126</v>
+        <v>1.037938946953124</v>
       </c>
       <c r="N19">
-        <v>1.016330755299309</v>
+        <v>1.013227239286013</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030641201660973</v>
+        <v>0.99963420579915</v>
       </c>
       <c r="D20">
-        <v>1.040468581821579</v>
+        <v>1.021662321271885</v>
       </c>
       <c r="E20">
-        <v>1.048000023596092</v>
+        <v>1.014567878618768</v>
       </c>
       <c r="F20">
-        <v>1.052973380243489</v>
+        <v>1.023293391056434</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039028739865256</v>
+        <v>1.047261797840779</v>
       </c>
       <c r="J20">
-        <v>1.03687360695718</v>
+        <v>1.027179235485204</v>
       </c>
       <c r="K20">
-        <v>1.043826585172637</v>
+        <v>1.035334667369615</v>
       </c>
       <c r="L20">
-        <v>1.051332170067181</v>
+        <v>1.028359316519799</v>
       </c>
       <c r="M20">
-        <v>1.056288675050691</v>
+        <v>1.036938657537599</v>
       </c>
       <c r="N20">
-        <v>1.016284530325013</v>
+        <v>1.01299669451757</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029789154628377</v>
+        <v>0.9951789106200482</v>
       </c>
       <c r="D21">
-        <v>1.039790526679717</v>
+        <v>1.018289246307474</v>
       </c>
       <c r="E21">
-        <v>1.047050026584713</v>
+        <v>1.010181890365244</v>
       </c>
       <c r="F21">
-        <v>1.05206528823636</v>
+        <v>1.019006229161644</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038820963732302</v>
+        <v>1.045810595036599</v>
       </c>
       <c r="J21">
-        <v>1.036419985477383</v>
+        <v>1.024879591721391</v>
       </c>
       <c r="K21">
-        <v>1.04335661485422</v>
+        <v>1.032932214479777</v>
       </c>
       <c r="L21">
-        <v>1.050589520542802</v>
+        <v>1.024972897610328</v>
       </c>
       <c r="M21">
-        <v>1.055586646139931</v>
+        <v>1.033636252713693</v>
       </c>
       <c r="N21">
-        <v>1.016134158146957</v>
+        <v>1.012233774933142</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029254028453254</v>
+        <v>0.9923206185112146</v>
       </c>
       <c r="D22">
-        <v>1.039364714354379</v>
+        <v>1.016129455495943</v>
       </c>
       <c r="E22">
-        <v>1.04645427699239</v>
+        <v>1.007378667245294</v>
       </c>
       <c r="F22">
-        <v>1.051495539585246</v>
+        <v>1.016263890047307</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038689159579011</v>
+        <v>1.044869758065822</v>
       </c>
       <c r="J22">
-        <v>1.036134607523721</v>
+        <v>1.023401607255583</v>
       </c>
       <c r="K22">
-        <v>1.043060876048474</v>
+        <v>1.031388016440879</v>
       </c>
       <c r="L22">
-        <v>1.050123439829434</v>
+        <v>1.022805354903749</v>
       </c>
       <c r="M22">
-        <v>1.055145749299079</v>
+        <v>1.031519897662376</v>
       </c>
       <c r="N22">
-        <v>1.016039546299802</v>
+        <v>1.011743493908894</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029537652443149</v>
+        <v>0.9938414090798273</v>
       </c>
       <c r="D23">
-        <v>1.039590396736256</v>
+        <v>1.01727818670296</v>
       </c>
       <c r="E23">
-        <v>1.04676994737291</v>
+        <v>1.008869149117227</v>
       </c>
       <c r="F23">
-        <v>1.051797459199398</v>
+        <v>1.017722212837781</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038759141791218</v>
+        <v>1.045371253512382</v>
       </c>
       <c r="J23">
-        <v>1.036285907280292</v>
+        <v>1.024188226933621</v>
       </c>
       <c r="K23">
-        <v>1.043217675995157</v>
+        <v>1.03220988716664</v>
       </c>
       <c r="L23">
-        <v>1.050370436632194</v>
+        <v>1.023958140591767</v>
       </c>
       <c r="M23">
-        <v>1.055379429387222</v>
+        <v>1.03264570197381</v>
       </c>
       <c r="N23">
-        <v>1.016089708019265</v>
+        <v>1.01200442849397</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030655496197846</v>
+        <v>0.9997079637583874</v>
       </c>
       <c r="D24">
-        <v>1.040479957971133</v>
+        <v>1.021718229305569</v>
       </c>
       <c r="E24">
-        <v>1.048015976561214</v>
+        <v>1.014640663806839</v>
       </c>
       <c r="F24">
-        <v>1.052988624791218</v>
+        <v>1.023364497744019</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039032203412354</v>
+        <v>1.047285656151191</v>
       </c>
       <c r="J24">
-        <v>1.036881209035596</v>
+        <v>1.027217260013632</v>
       </c>
       <c r="K24">
-        <v>1.043834459948559</v>
+        <v>1.035374389021738</v>
       </c>
       <c r="L24">
-        <v>1.051344635005644</v>
+        <v>1.028415460285805</v>
       </c>
       <c r="M24">
-        <v>1.056300452944608</v>
+        <v>1.036993364886613</v>
       </c>
       <c r="N24">
-        <v>1.016287050167069</v>
+        <v>1.013009310071491</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031955195436752</v>
+        <v>1.006281260932702</v>
       </c>
       <c r="D25">
-        <v>1.041514390162861</v>
+        <v>1.026709265256448</v>
       </c>
       <c r="E25">
-        <v>1.049468607092498</v>
+        <v>1.02115124505115</v>
       </c>
       <c r="F25">
-        <v>1.054376079808249</v>
+        <v>1.029719468104465</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039343965703351</v>
+        <v>1.049388036245578</v>
       </c>
       <c r="J25">
-        <v>1.037571247965551</v>
+        <v>1.030599069025352</v>
       </c>
       <c r="K25">
-        <v>1.044549068374885</v>
+        <v>1.038906635117117</v>
       </c>
       <c r="L25">
-        <v>1.052478790460669</v>
+        <v>1.033429854259902</v>
       </c>
       <c r="M25">
-        <v>1.057371351742378</v>
+        <v>1.041873302880071</v>
       </c>
       <c r="N25">
-        <v>1.01651574824248</v>
+        <v>1.014131383743506</v>
       </c>
     </row>
   </sheetData>
